--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Msmp-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Msmp-Ccr2.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.002529333333333333</v>
+        <v>0.002529333333333334</v>
       </c>
       <c r="H2">
-        <v>0.007587999999999999</v>
+        <v>0.007588</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N2">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q2">
-        <v>0.02404599597244444</v>
+        <v>6.485632222222222E-05</v>
       </c>
       <c r="R2">
-        <v>0.2164139637519999</v>
+        <v>0.0005837069</v>
       </c>
       <c r="S2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="T2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.002529333333333333</v>
+        <v>0.002529333333333334</v>
       </c>
       <c r="H3">
-        <v>0.007587999999999999</v>
+        <v>0.007588</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N3">
         <v>0.033385</v>
       </c>
       <c r="O3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q3">
-        <v>2.814726444444445E-05</v>
+        <v>2.814726444444444E-05</v>
       </c>
       <c r="R3">
         <v>0.00025332538</v>
       </c>
       <c r="S3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="T3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.002529333333333333</v>
+        <v>0.002529333333333334</v>
       </c>
       <c r="H4">
-        <v>0.007587999999999999</v>
+        <v>0.007588</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.104612</v>
       </c>
       <c r="O4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q4">
-        <v>8.819953955555555E-05</v>
+        <v>8.819953955555556E-05</v>
       </c>
       <c r="R4">
-        <v>0.0007937958559999999</v>
+        <v>0.000793795856</v>
       </c>
       <c r="S4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="T4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.002529333333333333</v>
+        <v>0.002529333333333334</v>
       </c>
       <c r="H5">
-        <v>0.007587999999999999</v>
+        <v>0.007588</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N5">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q5">
-        <v>0.4911904511297778</v>
+        <v>0.09546718852844445</v>
       </c>
       <c r="R5">
-        <v>4.420714060168</v>
+        <v>0.859204696756</v>
       </c>
       <c r="S5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="T5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
     </row>
   </sheetData>
